--- a/검은사막 - 신규 환상마 기획서/board_object_skill.xlsx
+++ b/검은사막 - 신규 환상마 기획서/board_object_skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SinWooChi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SinWooChi\portfolio\검은사막 - 신규 환상마 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE710108-50F7-4796-A19F-45605090CDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8CC5E1-0443-4BC3-90FB-30A28DE7040A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="board_object_skill" sheetId="1" r:id="rId1"/>
@@ -811,37 +811,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8984375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="15.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.59765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="41.25" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.8">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
@@ -864,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
@@ -887,7 +889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
@@ -910,7 +912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
@@ -933,7 +935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
@@ -956,7 +958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
@@ -979,7 +981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="25" t="s">
         <v>34</v>
       </c>
@@ -1002,7 +1004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="26"/>
       <c r="C13" s="28"/>
       <c r="D13" s="24"/>
@@ -1015,7 +1017,7 @@
       </c>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="25" t="s">
         <v>46</v>
       </c>
@@ -1038,7 +1040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="26"/>
       <c r="C15" s="28"/>
       <c r="D15" s="24"/>
@@ -1051,7 +1053,7 @@
       </c>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="25" t="s">
         <v>47</v>
       </c>
@@ -1074,7 +1076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="26"/>
       <c r="C17" s="28"/>
       <c r="D17" s="24"/>
@@ -1115,21 +1117,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38DD5D5-5595-45EA-8634-7EAE55B82575}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.09765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.8984375" style="14" customWidth="1"/>
     <col min="6" max="8" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1139,7 +1141,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
@@ -1165,7 +1167,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="174" x14ac:dyDescent="0.4">
       <c r="A3" s="14">
         <v>12038</v>
       </c>
@@ -1191,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.4">
       <c r="A4" s="14">
         <v>12039</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A5" s="14">
         <v>12040</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="14">
         <v>12041</v>
       </c>
